--- a/data/unchecked/manual_collect/china/guangxi/guangxiCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/guangxi/guangxiCaseStatistics_20200213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\2.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\china\guangxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9335" uniqueCount="3307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9395" uniqueCount="3310">
   <si>
     <t>统计级别</t>
   </si>
@@ -10329,6 +10329,16 @@
   </si>
   <si>
     <t>http://www.gzhfpc.gov.cn/ztzl_500663/xxgzbdgrdfyyqfk/yqdt/</t>
+  </si>
+  <si>
+    <t>已核查</t>
+  </si>
+  <si>
+    <t>丁超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
   </si>
 </sst>
 </file>
@@ -10813,20 +10823,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="13" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="13" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="13" customWidth="1"/>
     <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
@@ -11040,7 +11050,21 @@
       <c r="AB2" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AD2" s="14"/>
+      <c r="AC2" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>43875.504166666666</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>3309</v>
+      </c>
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
     </row>
@@ -11095,6 +11119,21 @@
       <c r="AB3" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC3" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>43875.504166666666</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="12">
@@ -11144,6 +11183,21 @@
       <c r="AB4" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC4" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="12">
@@ -11193,6 +11247,21 @@
       </c>
       <c r="AB5" s="20" t="s">
         <v>3295</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>3309</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -11252,6 +11321,21 @@
       <c r="AB6" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC6" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="22">
@@ -11312,6 +11396,21 @@
       </c>
       <c r="AB7" s="20" t="s">
         <v>3295</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>3309</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -11370,6 +11469,21 @@
       <c r="AB8" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC8" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="23">
@@ -11417,6 +11531,21 @@
       <c r="AB9" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC9" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="23">
@@ -11470,6 +11599,21 @@
       <c r="AB10" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC10" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="12">
@@ -11519,6 +11663,21 @@
       <c r="AB11" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC11" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG11" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="12">
@@ -11565,6 +11724,21 @@
       <c r="AB12" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC12" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="12">
@@ -11611,6 +11785,21 @@
       <c r="AB13" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC13" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD13" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="12">
@@ -11660,6 +11849,21 @@
       <c r="AB14" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC14" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="12">
@@ -11706,6 +11910,21 @@
       <c r="AB15" s="20" t="s">
         <v>3295</v>
       </c>
+      <c r="AC15" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD15" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="12">
@@ -11751,6 +11970,21 @@
       </c>
       <c r="AB16" s="20" t="s">
         <v>3295</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AD16" s="19">
+        <v>43875.504166608793</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>3309</v>
       </c>
     </row>
   </sheetData>
@@ -11762,7 +11996,7 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA17:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AA17:AA1048576 AE2:AE1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
@@ -11779,7 +12013,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/data/unchecked/manual_collect/china/guangxi/guangxiCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/guangxi/guangxiCaseStatistics_20200213.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9395" uniqueCount="3310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9335" uniqueCount="3307">
   <si>
     <t>统计级别</t>
   </si>
@@ -10329,16 +10329,6 @@
   </si>
   <si>
     <t>http://www.gzhfpc.gov.cn/ztzl_500663/xxgzbdgrdfyyqfk/yqdt/</t>
-  </si>
-  <si>
-    <t>已核查</t>
-  </si>
-  <si>
-    <t>丁超</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核查通过</t>
   </si>
 </sst>
 </file>
@@ -10823,8 +10813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AG16"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11050,21 +11040,7 @@
       <c r="AB2" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC2" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>43875.504166666666</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD2" s="19"/>
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
     </row>
@@ -11119,21 +11095,7 @@
       <c r="AB3" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC3" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD3" s="19">
-        <v>43875.504166666666</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD3" s="19"/>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="12">
@@ -11183,21 +11145,7 @@
       <c r="AB4" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD4" s="19"/>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="12">
@@ -11248,21 +11196,7 @@
       <c r="AB5" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC5" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD5" s="19"/>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="12">
@@ -11321,21 +11255,7 @@
       <c r="AB6" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC6" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD6" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD6" s="19"/>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="22">
@@ -11397,21 +11317,7 @@
       <c r="AB7" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC7" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE7" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF7" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD7" s="19"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="22">
@@ -11469,21 +11375,7 @@
       <c r="AB8" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC8" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD8" s="19"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="23">
@@ -11531,21 +11423,7 @@
       <c r="AB9" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC9" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD9" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF9" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD9" s="19"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="23">
@@ -11599,21 +11477,7 @@
       <c r="AB10" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC10" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF10" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG10" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD10" s="19"/>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="12">
@@ -11663,21 +11527,7 @@
       <c r="AB11" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC11" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD11" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG11" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD11" s="19"/>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="12">
@@ -11724,21 +11574,7 @@
       <c r="AB12" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD12" s="19"/>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="12">
@@ -11785,21 +11621,7 @@
       <c r="AB13" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC13" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD13" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD13" s="19"/>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="12">
@@ -11849,21 +11671,7 @@
       <c r="AB14" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD14" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF14" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD14" s="19"/>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="12">
@@ -11910,21 +11718,7 @@
       <c r="AB15" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC15" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD15" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF15" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD15" s="19"/>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="12">
@@ -11971,21 +11765,7 @@
       <c r="AB16" s="20" t="s">
         <v>3295</v>
       </c>
-      <c r="AC16" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="AD16" s="19">
-        <v>43875.504166608793</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>3294</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="AG16" s="13" t="s">
-        <v>3309</v>
-      </c>
+      <c r="AD16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
